--- a/medicine/Enfance/Chris_Haughton/Chris_Haughton.xlsx
+++ b/medicine/Enfance/Chris_Haughton/Chris_Haughton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chris Haughton, né en 1978 à Dublin[1] est un auteur jeunesse, illustrateur et designer[2] irlandais[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris Haughton, né en 1978 à Dublin est un auteur jeunesse, illustrateur et designer irlandais.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chris Haughton est publicitaire[4],[3], dessinateur de presse (pour The Guardian[3] notamment) et graphiste[5]. 
-Il s'installe en travailleur indépendant en 2012, et « il a fait partie de la sélection du Time Magazine des 100 principaux designers mondiaux, pour son travail avec la société de commerce équitable People Tree (en)[3] ».
-Il se lance dans la création et l'illustration d'ouvrages jeunesse au début des années 2010. Ses ouvrages jeunesse ont reçu de nombreux prix[6].
-Ses ouvrages sont traduits dans plusieurs langues, et ses traductions françaises sont publiées par les éditions Thierry Magnier[3].
-En 2017, il crée Little Earth, « un livre jeunesse en réalité virtuelle sur le changement climatique[7] ».
-Chris Haughton vit à Londres[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris Haughton est publicitaire dessinateur de presse (pour The Guardian notamment) et graphiste. 
+Il s'installe en travailleur indépendant en 2012, et « il a fait partie de la sélection du Time Magazine des 100 principaux designers mondiaux, pour son travail avec la société de commerce équitable People Tree (en) ».
+Il se lance dans la création et l'illustration d'ouvrages jeunesse au début des années 2010. Ses ouvrages jeunesse ont reçu de nombreux prix.
+Ses ouvrages sont traduits dans plusieurs langues, et ses traductions françaises sont publiées par les éditions Thierry Magnier.
+En 2017, il crée Little Earth, « un livre jeunesse en réalité virtuelle sur le changement climatique ».
+Chris Haughton vit à Londres.
 </t>
         </is>
       </c>
@@ -547,34 +561,36 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
-La liste exhaustive des prix et nominations est disponible sur la page dédiée du site de l'auteur[6].
+La liste exhaustive des prix et nominations est disponible sur la page dédiée du site de l'auteur.
  CBI Book of the Year Awards (en) 2011 pour Un peu perdu
  CBI Book of the Year Awards (en), première œuvre, 2011 pour Un peu perdu
  Prix Sorcières 2012, Catégorie Tout-Petits, pour Un peu perdu
- Prix P'tits Mômes 2012[3] pour Un peu perdu
+ Prix P'tits Mômes 2012 pour Un peu perdu
  Nomination Waterstones Children's Book Prize (en) 2012 pour Un peu perdu
-(international) « Honour List » 2012[8] de l' IBBY pour Un peu perdu
+(international) « Honour List » 2012 de l' IBBY pour Un peu perdu
  Nomination Irish Book Awards 2012, catégorie Children's Book, pour Un peu perdu
- Prix Andersen (it) 2013[9] pour Un peu perdu
- Nomination Médaille Kate Greenaway 2013[10] pour Oh non, George !
+ Prix Andersen (it) 2013 pour Un peu perdu
+ Nomination Médaille Kate Greenaway 2013 pour Oh non, George !
  Nomination Waterstones Children's Book Prize (en) 2012 pour Oh non, George
- Irish Book Awards 2014, catégorie Children's Book[11] pour Chut ! On a un plan
- Nomination Cybils Award (en) 2014[12], catégorie Fiction Picture Books, pour Un peu perdu
- Finaliste Cybils Award (en) 2014[13], catégorie Book Apps, pour son application Le singe au chapeau
- Sélection Pépite de la création numérique 2014[14], Salon du livre et de la presse jeunesse pour son application Le singe au chapeau
- Chen Bochui international 2015[15], catégorie Album, pour Chut ! On a un plan
- Cybils Award (en) 2014[16], catégorie Fiction Picture Books, pour Chut ! On a un plan
+ Irish Book Awards 2014, catégorie Children's Book pour Chut ! On a un plan
+ Nomination Cybils Award (en) 2014, catégorie Fiction Picture Books, pour Un peu perdu
+ Finaliste Cybils Award (en) 2014, catégorie Book Apps, pour son application Le singe au chapeau
+ Sélection Pépite de la création numérique 2014, Salon du livre et de la presse jeunesse pour son application Le singe au chapeau
+ Chen Bochui international 2015, catégorie Album, pour Chut ! On a un plan
+ Cybils Award (en) 2014, catégorie Fiction Picture Books, pour Chut ! On a un plan
  Prix Bernard Versele 2016, Catégorie 1 chouette, pour Un peu perdu
  Prix Bernard Versele 2016, Catégorie 2 chouettes, pour Chut ! On a un plan
- Prix des Incorruptibles 2016[17], Catégorie Maternelle pour Chut ! On a un plan
+ Prix des Incorruptibles 2016, Catégorie Maternelle pour Chut ! On a un plan
  Nomination Irish Book Awards 2016, catégorie Children's Book, pour Bonne nuit tout le monde
- CBI Book of the Year Awards (en) 2017[18] pour Bonne nuit tout le monde
- Nomination Médaille Kate Greenaway 2017[19] pour Bonne nuit tout le monde
- Prix Libbylit 2022[20] délivré par l' IBBY, catégorie Petite enfance, pour Et si ?
- Finaliste Prix des libraires du Québec 2022 catégorie Hors Québec - Jeunesse[21] pour Et si ?
+ CBI Book of the Year Awards (en) 2017 pour Bonne nuit tout le monde
+ Nomination Médaille Kate Greenaway 2017 pour Bonne nuit tout le monde
+ Prix Libbylit 2022 délivré par l' IBBY, catégorie Petite enfance, pour Et si ?
+ Finaliste Prix des libraires du Québec 2022 catégorie Hors Québec - Jeunesse pour Et si ?
 Participations événementielles
 2017 :  Juré du Golden Pinwheel Young Illustrators Award (en)</t>
         </is>
@@ -606,24 +622,97 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auteur-illustrateur
-(en) Little Owl lost, 2010 ; rééd. sous le nouveau titre (en) A bit lost, 2011
-Un peu perdu[5], éditions Thierry Magnier, 2011
+          <t>Auteur-illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Little Owl lost, 2010 ; rééd. sous le nouveau titre (en) A bit lost, 2011
+Un peu perdu, éditions Thierry Magnier, 2011
 (en) Oh no, George !, 2012
-Oh non, George ![4], Thierry Magnier, 2012 ; rééd. Magnard, 2016
+Oh non, George !, Thierry Magnier, 2012 ; rééd. Magnard, 2016
 (en) Shh! We Have a Plan, 2014
 Chut ! On a un plan, Thierry Magnier, 2015
 (en) Goodnight Everyone, 2016
-Bonne nuit tout le monde[22], Thierry Magnier, 2016
+Bonne nuit tout le monde, Thierry Magnier, 2016
 (en) Don't worry, Little crab, 2019
 Pas de panique, petit crabe, Thierry Magnier, 2019
 (en) Maybe..., 2021
-Et si ?[23], Thierry Magnier, 2021
-Jeu d'application mobile
-(en) Hat Monkey, 2014 ; éditeur : Fox and Sheep (Allemagne), format : application (Appstore)
-Le singe au chapeau
-Ouvrage en réalité virtuelle
-(en) Little Earth[7], 2017</t>
+Et si ?, Thierry Magnier, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chris_Haughton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Haughton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jeu d'application mobile</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Hat Monkey, 2014 ; éditeur : Fox and Sheep (Allemagne), format : application (Appstore)
+Le singe au chapeau</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chris_Haughton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Haughton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrage en réalité virtuelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Little Earth, 2017</t>
         </is>
       </c>
     </row>
